--- a/Documentacion/Negocios/Inversiones.xlsx
+++ b/Documentacion/Negocios/Inversiones.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilianoAgustin\Documents\juego-sap-tfi\Documentacion\Negocios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Computadoras</t>
   </si>
@@ -52,13 +57,43 @@
   </si>
   <si>
     <t>Muebles y Utiles</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Amortización</t>
+  </si>
+  <si>
+    <t>Depreciación 1er año</t>
+  </si>
+  <si>
+    <t>Depreciación 3er año</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Licencias</t>
+  </si>
+  <si>
+    <t>Muebles y Útiles</t>
+  </si>
+  <si>
+    <t>Valor residual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +130,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +161,14 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -204,6 +253,219 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -214,7 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -224,16 +486,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
-    <cellStyle name="Énfasis3" xfId="3" builtinId="37"/>
+    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -243,12 +540,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +623,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,6 +675,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,20 +868,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R6" sqref="O3:R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,162 +902,389 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <f>C3+C4+C5+C6+C7</f>
         <v>1375</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>7</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f>E3+E4+E5+E6+E7</f>
         <v>9625</v>
       </c>
+      <c r="G2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="33">
+        <v>7</v>
+      </c>
+      <c r="I2" s="26">
+        <f>C2</f>
+        <v>1375</v>
+      </c>
+      <c r="J2" s="26">
+        <f>H2*I2</f>
+        <v>9625</v>
+      </c>
+      <c r="K2" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="L2" s="28">
+        <f>J2*K2</f>
+        <v>2502.5</v>
+      </c>
+      <c r="M2" s="29">
+        <f>(J2*K2)*3</f>
+        <v>7507.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>400</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>7</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>C3*D3</f>
         <v>2800</v>
       </c>
+      <c r="G3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="34">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16">
+        <f>C9</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="16">
+        <f>H3*I3</f>
+        <v>700</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="L3" s="18">
+        <f t="shared" ref="L3:L4" si="0">J3*K3</f>
+        <v>182</v>
+      </c>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M4" si="1">(J3*K3)*3</f>
+        <v>546</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>300</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>7</v>
       </c>
-      <c r="E4" s="13">
-        <f t="shared" ref="E4:E7" si="0">C4*D4</f>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E7" si="2">C4*D4</f>
         <v>2100</v>
       </c>
+      <c r="G4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="21">
+        <v>2375</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2375</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" si="0"/>
+        <v>712.5</v>
+      </c>
+      <c r="M4" s="24">
+        <f t="shared" si="1"/>
+        <v>2137.5</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="47">
+        <v>9625</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>7507.5</v>
+      </c>
+      <c r="R4" s="29">
+        <f>P4-Q4</f>
+        <v>2117.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>75</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>7</v>
       </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
+      <c r="O5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="48">
+        <v>700</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>546</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" ref="R5:R6" si="3">P5-Q5</f>
+        <v>154</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>7</v>
       </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
+      <c r="G6" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="49">
+        <v>2375</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>2137.5</v>
+      </c>
+      <c r="R6" s="24">
+        <f t="shared" si="3"/>
+        <v>237.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>200</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>7</v>
       </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
+      <c r="G7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <v>7</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1375</v>
+      </c>
+      <c r="J7" s="25">
+        <v>9625</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="L7" s="25">
+        <v>2502.5</v>
+      </c>
+      <c r="M7" s="40">
+        <v>7507.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
+      <c r="G8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="34">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15">
+        <v>100</v>
+      </c>
+      <c r="J8" s="15">
+        <v>700</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="L8" s="15">
+        <v>182</v>
+      </c>
+      <c r="M8" s="41">
+        <v>546</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>100</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>7</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>700</v>
       </c>
+      <c r="G9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="20">
+        <v>2375</v>
+      </c>
+      <c r="J9" s="20">
+        <v>2375</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="20">
+        <v>712.5</v>
+      </c>
+      <c r="M9" s="42">
+        <v>2137.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>2375</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>2375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="I12" s="14"/>
+      <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10">
         <f>E2+E9+E11</f>
         <v>12700</v>
       </c>
@@ -733,7 +1301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -745,7 +1313,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
